--- a/biology/Médecine/A._J._Cronin/A._J._Cronin.xlsx
+++ b/biology/Médecine/A._J._Cronin/A._J._Cronin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archibald Joseph Cronin (19 juillet 1896 - 6 janvier 1981), qui signe ses œuvres A. J. Cronin, est considéré comme un des plus grands écrivains écossais. Plusieurs de ses ouvrages sont considérés comme des chefs-d'œuvre, en particulier La Citadelle et surtout Les Clés du royaume.
-Écossais catholique avec des origines irlandaises et une mère protestante, orphelin[1] de père à sept ans, brillant élève, il est d'abord médecin des pauvres en milieu industriel, puis a une brillante clientèle à Londres. Son itinéraire et ses origines inspirent nombre de ses personnages romanesques. Au-delà des personnages, ses romans contiennent de nombreux éléments autobiographiques, tels que le lieu où se déroule La Citadelle, l'un de ses plus grands succès.
+Écossais catholique avec des origines irlandaises et une mère protestante, orphelin de père à sept ans, brillant élève, il est d'abord médecin des pauvres en milieu industriel, puis a une brillante clientèle à Londres. Son itinéraire et ses origines inspirent nombre de ses personnages romanesques. Au-delà des personnages, ses romans contiennent de nombreux éléments autobiographiques, tels que le lieu où se déroule La Citadelle, l'un de ses plus grands succès.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">A. J. Cronin est né dans la maison Rosebank (Rosebank Cottage) à Cardross, dans le Dunbartonshire (aujourd'hui dans l'Argyll and Bute) en Écosse. Il est le fils de Patrick Cronin, agent d'assurances et représentant de commerce, catholique d'origine irlandaise, et de Jessie Cronin née Montgomerie, protestante, fille d'un chapelier.
-Archibald a sept ans lorsque son père meurt de tuberculose. Il déménage alors avec sa mère chez ses grands-parents maternels, à Dumbarton en Écosse. Sa mère devient la première femme inspectrice de santé en Écosse. Il est un élève précoce, remporte de nombreux prix et se distingue aussi en athlétisme et en football[1].
-Il devient médecin des pauvres[1] dans une région industrielle du Pays de Galles, puis inspecteur des mines en 1924. Après sa thèse sur les anévrismes (1924), il s'installe à Londres avec une brillante clientèle. Un repos forcé lui donne alors l'occasion d'écrire en 1931 son premier roman, Le Chapelier et son château. Il publie ensuite une vingtaine de romans. Il écrit principalement des romans tragiques.
+Archibald a sept ans lorsque son père meurt de tuberculose. Il déménage alors avec sa mère chez ses grands-parents maternels, à Dumbarton en Écosse. Sa mère devient la première femme inspectrice de santé en Écosse. Il est un élève précoce, remporte de nombreux prix et se distingue aussi en athlétisme et en football.
+Il devient médecin des pauvres dans une région industrielle du Pays de Galles, puis inspecteur des mines en 1924. Après sa thèse sur les anévrismes (1924), il s'installe à Londres avec une brillante clientèle. Un repos forcé lui donne alors l'occasion d'écrire en 1931 son premier roman, Le Chapelier et son château. Il publie ensuite une vingtaine de romans. Il écrit principalement des romans tragiques.
 A. J. Cronin demeure l'un des romanciers les plus traduits, les plus diffusés, les plus adaptés par le cinéma et par la télévision, dont : The Citadel (La Citadelle, 1937 ; film de King Vidor en 1938), The Stars Look Down (Sous le regard des étoiles, 1935 ; film de Carol Reed en 1939), The Keys of the Kingdom (Les Clés du royaume, 1941 ; film de John M. Stahl en 1944). On pourrait le rapprocher d'autres médecins écrivains à succès de la même époque comme Frank G. Slaughter, Lloyd C. Douglas ou André Soubiran.
 L'un de ses fils, Vincent Cronin, est également écrivain. Son épouse Agnès Mary est décédée le 10 juin 1981 à 83 ans.
 </t>
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-(Par ordre de publication originale)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Par ordre de publication originale)
 Le Chapelier et son château (Hatter's Castle, 1931), Albin Michel, 1940
 Trois Amours (Three Loves, 1932), Albin Michel, 1941
 Aux Canaries (Grand Canary, 1933), Albin Michel, 1938
@@ -575,9 +594,43 @@
 Gracie Lindsay, Albin Michel, 1973
 Le Chant du paradis (The Minstrel Boy, 1975), Albin Michel, 1976
 Le Porte-bonheur (nouvelles), 1975
-L'Aventure de Bryan Harker, Albin Michel, 1978
-Autres œuvres
-Chairs vives ou Kaléidoscope (Kaleidoscope in 'K', 1933), Éditions de la paix, 1946
+L'Aventure de Bryan Harker, Albin Michel, 1978</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A._J._Cronin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._J._Cronin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres œuvres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chairs vives ou Kaléidoscope (Kaleidoscope in 'K', 1933), Éditions de la paix, 1946
 Les Confidences d'une trousse noire (Adventures of a Black Bag, 1943), Éditions de la paix, 1948
 Sur les chemins de ma vie (Adventures in Two Worlds, 1952), autobiographie, Albin Michel, 1953 ; paru dans la Bibliothèque Verte sous le titre Sur les chemins de l'aventure, 1962 no 175
 Nouvelles confidences d'une trousse noire (Further Adventures of a Black Bag), 1964
@@ -585,34 +638,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>A._J._Cronin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/A._J._Cronin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cinéma
-Aux Canaries par Irving Cummings, 1934
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aux Canaries par Irving Cummings, 1934
 La Citadelle par King Vidor, 1938
 Sous le regard des étoiles par Carol Reed, 1939
 Vigil in the Night par George Stevens, 1940
@@ -622,9 +680,43 @@
 Les Vertes Années par Victor Saville, 1946
 L'amour ne meurt jamais (d'après Les Hommes proposent) par O.W. Fischer, 1955
 Le Jardinier espagnol par Philip Leacock, 1956
-Fils de forçat (d'après Beyond This Place) par Jack Cardiff, 1959
-Télévision
-Les Années d'illusion par Pierre Matteuzzi, 1977</t>
+Fils de forçat (d'après Beyond This Place) par Jack Cardiff, 1959</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A._J._Cronin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._J._Cronin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Années d'illusion par Pierre Matteuzzi, 1977</t>
         </is>
       </c>
     </row>
